--- a/output/fit_clients/fit_round_385.xlsx
+++ b/output/fit_clients/fit_round_385.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2163778083.256556</v>
+        <v>1893375137.733087</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1028423096989268</v>
+        <v>0.1000833154656433</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02998679503781559</v>
+        <v>0.03678630478910612</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1081889059.276146</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2463047478.06502</v>
+        <v>1896970589.169431</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1822502096262441</v>
+        <v>0.1289636487507045</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03144062140138879</v>
+        <v>0.03447312810784923</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1231523850.811763</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4939877859.758492</v>
+        <v>3211021335.528067</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1469615279455824</v>
+        <v>0.1016634314489009</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03181786615843926</v>
+        <v>0.03333017636194047</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>139</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2469939010.655074</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3733559801.819043</v>
+        <v>3517340705.371989</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08388712897741178</v>
+        <v>0.09630424679383109</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04495687911957856</v>
+        <v>0.03090556664875934</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>143</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1866779922.217416</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2314414621.082635</v>
+        <v>2185927665.73108</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1413691162466966</v>
+        <v>0.1335271446475332</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05612476493190112</v>
+        <v>0.05210115662345918</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>71</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1157207306.122645</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3002553620.863424</v>
+        <v>2468212055.831379</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08716404637438946</v>
+        <v>0.09242814926873724</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0310480477483124</v>
+        <v>0.03136699954914763</v>
       </c>
       <c r="H7" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>121</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1501276775.063167</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2507077654.690042</v>
+        <v>2411884430.007407</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1749770607384929</v>
+        <v>0.1608160350420396</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03260497839925356</v>
+        <v>0.02846894444985559</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>123</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1253538834.479779</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2114252941.103367</v>
+        <v>1440435791.222755</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1669059200548718</v>
+        <v>0.1713471052677102</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03225127752768527</v>
+        <v>0.02592140490859559</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1057126481.31831</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3605902322.027189</v>
+        <v>5338436024.143297</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1883346366159666</v>
+        <v>0.1348815674526054</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04240065210523241</v>
+        <v>0.03667503668777618</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>161</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1802951152.377947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2655008370.956566</v>
+        <v>2631591501.327183</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1886406672701328</v>
+        <v>0.1335402778654105</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0343458450758073</v>
+        <v>0.03707426824721865</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>159</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1327504104.381118</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2158003234.939217</v>
+        <v>2871039656.156592</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1377921495633166</v>
+        <v>0.1298736231351188</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04482173970057277</v>
+        <v>0.05360838381956305</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>131</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1079001558.4001</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4067422189.165557</v>
+        <v>4767781716.584414</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07173617643032512</v>
+        <v>0.09941398161823278</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02837413997215247</v>
+        <v>0.03019375498853085</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>129</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2033711146.099115</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2352645188.91608</v>
+        <v>3062368173.175586</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1677157023665299</v>
+        <v>0.1781377763353449</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03763111963644927</v>
+        <v>0.0380257298153509</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>125</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1176322675.786437</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1508436538.605741</v>
+        <v>1823598123.315851</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08229701747364446</v>
+        <v>0.0866455162984895</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03619717784022773</v>
+        <v>0.03464944359645485</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>754218356.7389057</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2131102887.588112</v>
+        <v>2782918016.016566</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1035195102528212</v>
+        <v>0.09030312354624695</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04062534466971747</v>
+        <v>0.04794134745263377</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>78</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1065551507.578203</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3468147235.005054</v>
+        <v>3912699965.600699</v>
       </c>
       <c r="F17" t="n">
-        <v>0.155201660523797</v>
+        <v>0.1270986185199022</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0454867888458749</v>
+        <v>0.03647269053576706</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>113</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1734073678.358909</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3404717741.255069</v>
+        <v>3062117014.104276</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1386947398553157</v>
+        <v>0.1482342538025871</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02794381341376394</v>
+        <v>0.02302529571296591</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>126</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1702358871.59862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1292089070.986888</v>
+        <v>1301063114.13788</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1427990061276379</v>
+        <v>0.1687385658039167</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02459549716127044</v>
+        <v>0.02296494590404614</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>646044635.8280485</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1856463421.791792</v>
+        <v>2404494207.666353</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1522025321877876</v>
+        <v>0.1427441997793876</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03177613984749944</v>
+        <v>0.03180877226329156</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>49</v>
-      </c>
-      <c r="J20" t="n">
-        <v>928231752.5437888</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2655542238.636559</v>
+        <v>1731775426.625524</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06302428411775858</v>
+        <v>0.08169084089362445</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02919144535386494</v>
+        <v>0.04535165559848687</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>30</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1327771092.579004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2456677459.137817</v>
+        <v>2611517162.468013</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1429299083099378</v>
+        <v>0.1386550140856896</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04467772696298262</v>
+        <v>0.04894350346874562</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>105</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1228338823.65088</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>971945327.6227399</v>
+        <v>1381946979.157908</v>
       </c>
       <c r="F23" t="n">
-        <v>0.140071574277378</v>
+        <v>0.1843111062722616</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03471442083218194</v>
+        <v>0.04329449202883043</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>485972738.73691</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2514108303.843486</v>
+        <v>3833444078.806195</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1373402642409131</v>
+        <v>0.09167108741370567</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02914730905135406</v>
+        <v>0.02724279082058722</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>112</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1257054219.85042</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1138010742.737887</v>
+        <v>1027413633.463894</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08517004143672835</v>
+        <v>0.07681727501332078</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02929833931176898</v>
+        <v>0.02121509073434472</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>569005403.6332502</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1344087899.789787</v>
+        <v>1042505683.812666</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07736827935334455</v>
+        <v>0.1206696239353533</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03093414817294503</v>
+        <v>0.03165631473821734</v>
       </c>
       <c r="H26" t="b">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>672044006.25337</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4037025548.253395</v>
+        <v>4572094948.569504</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1100313993098332</v>
+        <v>0.1328994696448884</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02385443946757208</v>
+        <v>0.0260351721404574</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>91</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2018512782.478092</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2879173227.146542</v>
+        <v>2367213218.406905</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1522906682887322</v>
+        <v>0.09803969763027547</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05002220667452301</v>
+        <v>0.04908815690493979</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>123</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1439586614.346193</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5335154664.609551</v>
+        <v>5157010745.561778</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1075914786020751</v>
+        <v>0.1376862264406583</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03404121575901933</v>
+        <v>0.02831191363012862</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>170</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2667577256.624307</v>
       </c>
     </row>
     <row r="30">
@@ -1448,22 +1270,16 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1565392728.813422</v>
+        <v>1905952961.775836</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09630095668477649</v>
+        <v>0.1030000661624919</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03869245851595134</v>
+        <v>0.03330674233004868</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>782696352.3546283</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1332117295.046322</v>
+        <v>1087338178.120378</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08210388378721611</v>
+        <v>0.07334590515165734</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04279529381844373</v>
+        <v>0.03751893630687661</v>
       </c>
       <c r="H31" t="b">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>666058567.8914961</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,22 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1800349210.140744</v>
+        <v>1700739064.009755</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08360416553535122</v>
+        <v>0.0934452769614115</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02827166522486792</v>
+        <v>0.02985185464911165</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>900174735.6229206</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2619911248.73711</v>
+        <v>2480595022.866513</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1525003456488489</v>
+        <v>0.1732490596440577</v>
       </c>
       <c r="G33" t="n">
-        <v>0.039569411580851</v>
+        <v>0.05110784815563031</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>116</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1309955652.362977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1506141912.797103</v>
+        <v>1128141127.273418</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0947956603698268</v>
+        <v>0.08284291875635436</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02615004065464947</v>
+        <v>0.01981623508905128</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>753070911.2650543</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1248888862.925018</v>
+        <v>1220653019.080642</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08313593666977882</v>
+        <v>0.09020897546421006</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04352236599360625</v>
+        <v>0.03828867009645223</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>624444395.4754019</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2214106655.346536</v>
+        <v>3202922862.61825</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1288715985233312</v>
+        <v>0.1699562644474039</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01754029474691439</v>
+        <v>0.02063870020024703</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>97</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1107053372.549889</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2144195817.73652</v>
+        <v>2130460817.192174</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07915801294346522</v>
+        <v>0.1104660599211396</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03305531947661805</v>
+        <v>0.03298303866738893</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>102</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1072097956.005035</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1905402057.75757</v>
+        <v>1490529785.611513</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1055969655521928</v>
+        <v>0.1128567093499556</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03441038201582661</v>
+        <v>0.02836240033615063</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>952701020.8785979</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1423651119.166287</v>
+        <v>1484401769.568346</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1481620275176506</v>
+        <v>0.1497908221686347</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02667217507798583</v>
+        <v>0.0309195266862527</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>711825641.6073852</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1700240081.384871</v>
+        <v>1700143400.781063</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1300386572120771</v>
+        <v>0.1120494839582791</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04283362331673821</v>
+        <v>0.03689187674352993</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>850119956.7811964</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2014068703.50393</v>
+        <v>2723467479.318116</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1123994899010286</v>
+        <v>0.1659755995706065</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03386853347249019</v>
+        <v>0.03567009580557019</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>99</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1007034424.613758</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3784496063.952245</v>
+        <v>2907171177.837817</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1012449407096466</v>
+        <v>0.1248343049819513</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03326855913467305</v>
+        <v>0.03371675948643948</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>126</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1892248046.453429</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1962962978.925006</v>
+        <v>2247819124.521963</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1321625674083971</v>
+        <v>0.1956146282944042</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02041725170482307</v>
+        <v>0.02413158454246878</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>134</v>
-      </c>
-      <c r="J43" t="n">
-        <v>981481592.1562665</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2036320441.534734</v>
+        <v>2199293305.128673</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07124751712882356</v>
+        <v>0.06783900612444417</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02378003770639006</v>
+        <v>0.03218189960765849</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1018160334.362179</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2498600056.727512</v>
+        <v>1800929453.485361</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1175517726826872</v>
+        <v>0.1241034057846437</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05193533250501924</v>
+        <v>0.05607161027368869</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1249300069.502133</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5490898604.224171</v>
+        <v>4250625659.896153</v>
       </c>
       <c r="F46" t="n">
-        <v>0.155000782809995</v>
+        <v>0.110228428011335</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05566814592072247</v>
+        <v>0.04005430490612487</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>136</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2745449357.028055</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4296869122.111943</v>
+        <v>4738114661.903906</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1240221353773587</v>
+        <v>0.1280357123194579</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0538269557336273</v>
+        <v>0.04594493228246969</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>103</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2148434577.002607</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4239022601.367583</v>
+        <v>3765708487.931061</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07252806687930373</v>
+        <v>0.06724858049177826</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03505936297949471</v>
+        <v>0.0263683762966713</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>126</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2119511321.161374</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1676937757.526875</v>
+        <v>1640517567.988523</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1711436316299458</v>
+        <v>0.1554600972397197</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03127573686347484</v>
+        <v>0.03303174764047038</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>838468883.3005173</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3029706097.488037</v>
+        <v>4037316628.818097</v>
       </c>
       <c r="F50" t="n">
-        <v>0.110657858894648</v>
+        <v>0.1432519763639496</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04075362835112089</v>
+        <v>0.03244946404817132</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>131</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1514853106.493472</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1188388991.976977</v>
+        <v>1432077118.447341</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1414817758843945</v>
+        <v>0.1672842596254107</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04440293888147869</v>
+        <v>0.03476234686579014</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>594194549.4393492</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5056843102.916905</v>
+        <v>3611299268.04495</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1270821700407317</v>
+        <v>0.1192298684812212</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05526127498094203</v>
+        <v>0.04436560978564478</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>158</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2528421545.748569</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3436332727.913614</v>
+        <v>3595689200.534922</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1904286637977583</v>
+        <v>0.182867797822355</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03364231888821721</v>
+        <v>0.02644413100990277</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>110</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1718166366.28016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3722656246.670352</v>
+        <v>4922442880.942522</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1428388826592971</v>
+        <v>0.1202344389731314</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04264831731725301</v>
+        <v>0.04793073479412686</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>125</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1861328165.65351</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3200554017.047819</v>
+        <v>3245242999.965038</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1912910362340312</v>
+        <v>0.2011962328848392</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03059261700990109</v>
+        <v>0.02340627708911164</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1600276948.189263</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1628915616.827759</v>
+        <v>1732672999.737</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1078496258568589</v>
+        <v>0.1474772439695233</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05333999460955282</v>
+        <v>0.04474700984790901</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>814457831.5551214</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3065543873.501933</v>
+        <v>2822520266.23468</v>
       </c>
       <c r="F57" t="n">
-        <v>0.116082418957431</v>
+        <v>0.1226944972360734</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02172378160290744</v>
+        <v>0.01996312218063335</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>122</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1532771946.669456</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1801884279.517045</v>
+        <v>1207456076.349266</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1723178439166114</v>
+        <v>0.1327655885736645</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02663114900520308</v>
+        <v>0.03418221958141134</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>900942143.36997</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3671666869.328832</v>
+        <v>4445816862.520152</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1238477761093065</v>
+        <v>0.1249249005215905</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03024884492551513</v>
+        <v>0.03383724888397897</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>109</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1835833426.466353</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3441401601.765548</v>
+        <v>3695020093.925756</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1935760701495891</v>
+        <v>0.1662845487951861</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03267484349667436</v>
+        <v>0.02516386217153012</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>122</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1720700917.544734</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2529038115.852778</v>
+        <v>2416070661.182443</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1448299328377893</v>
+        <v>0.1516039076345203</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02184194326106739</v>
+        <v>0.02475362266868962</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>132</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1264519082.821567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1712228146.492616</v>
+        <v>1333610018.781922</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1752736157098813</v>
+        <v>0.1195893188689789</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04570019133096187</v>
+        <v>0.0371374764200369</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>856114088.175374</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5451543511.775631</v>
+        <v>5478696618.502132</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07782181251660614</v>
+        <v>0.07315141816226971</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03044163225474881</v>
+        <v>0.0450381719454939</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>111</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2725771753.505897</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4406398089.461945</v>
+        <v>4618745109.941471</v>
       </c>
       <c r="F64" t="n">
-        <v>0.136581910553243</v>
+        <v>0.1694399976898623</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03078962893930005</v>
+        <v>0.02857249983835548</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>119</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2203199109.180089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3737892406.408084</v>
+        <v>5963345693.550977</v>
       </c>
       <c r="F65" t="n">
-        <v>0.155164541209662</v>
+        <v>0.1216280754870805</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02102799340540397</v>
+        <v>0.0207876003187519</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>137</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1868946237.448031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5071521791.069493</v>
+        <v>3866898174.93658</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1323225437283019</v>
+        <v>0.1040494284291994</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0367757665123091</v>
+        <v>0.04771704523342565</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>112</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2535760926.539357</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2949638784.713825</v>
+        <v>3097082882.431507</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09020286477834265</v>
+        <v>0.09388895891457029</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04166156397764052</v>
+        <v>0.03269518730131898</v>
       </c>
       <c r="H67" t="b">
         <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>123</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1474819414.900846</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5803065666.299216</v>
+        <v>5840876197.023718</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1280673925728985</v>
+        <v>0.1148459675446474</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04573870156117388</v>
+        <v>0.03131706974368129</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>125</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2901532938.212893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2167659031.171914</v>
+        <v>2132496019.029859</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1569284107052663</v>
+        <v>0.1271657155315913</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0369803707585472</v>
+        <v>0.04229115454462191</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1083829542.230738</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2720498086.664232</v>
+        <v>2664245027.47799</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08081581890545901</v>
+        <v>0.08769491033347071</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0326997125541521</v>
+        <v>0.03419086897338452</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>110</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1360249002.155213</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5496538190.80607</v>
+        <v>4485712585.900564</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1187023015986633</v>
+        <v>0.1835826086993419</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02359465696734342</v>
+        <v>0.03000454208007761</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>140</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2748269238.162979</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2172546940.72591</v>
+        <v>2219953047.48184</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06577275299605313</v>
+        <v>0.08910565998018156</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05201250466545199</v>
+        <v>0.04243550585049768</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1086273388.890365</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2192820844.37674</v>
+        <v>3408081427.731004</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1124768612612811</v>
+        <v>0.09434677110216065</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0403776245105706</v>
+        <v>0.05001835679437838</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>146</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1096410492.108731</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3662448450.621645</v>
+        <v>3632015754.978979</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1458616105119973</v>
+        <v>0.1848100207649453</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02885984180898763</v>
+        <v>0.02146648902851072</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>131</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1831224233.416628</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2978,22 +2530,16 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1721610762.02574</v>
+        <v>1900093643.373496</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1324569664302825</v>
+        <v>0.1337815049927684</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02534617222216952</v>
+        <v>0.02975226223511655</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>860805371.2568185</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3953000508.170218</v>
+        <v>3686329463.464746</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1246453322044666</v>
+        <v>0.1198585110245777</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02311381420301139</v>
+        <v>0.02382044256363494</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>90</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1976500236.846318</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1932973813.969946</v>
+        <v>1907803912.963851</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1357948113001699</v>
+        <v>0.1814966637272106</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02248328314619672</v>
+        <v>0.02043197048225685</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>966486958.589784</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3239762085.530316</v>
+        <v>4247251391.100063</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1123996222471776</v>
+        <v>0.09991317834777148</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04336103154638839</v>
+        <v>0.05075902454925643</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>133</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1619881062.913867</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1669507261.722373</v>
+        <v>1850383873.303412</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1764247490002524</v>
+        <v>0.15642374995507</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03837301430197828</v>
+        <v>0.03855347759797301</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>834753694.7026962</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4297591018.226816</v>
+        <v>4616239761.668542</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09018506420868574</v>
+        <v>0.07681763944354028</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02826862900327227</v>
+        <v>0.02477035644992088</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>85</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2148795523.396562</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3231627337.599986</v>
+        <v>3950106213.787673</v>
       </c>
       <c r="F81" t="n">
-        <v>0.127522358463212</v>
+        <v>0.1180152042619636</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02066160762724517</v>
+        <v>0.02207494165485804</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>89</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1615813603.480314</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3886932234.602177</v>
+        <v>4493775743.254865</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1892564061738158</v>
+        <v>0.1990253748444976</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01832073020735947</v>
+        <v>0.01784695706166772</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>135</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1943466163.377612</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3250,22 +2754,16 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2205502459.228884</v>
+        <v>2337456774.932781</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1583056424972017</v>
+        <v>0.1584330496492652</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03565338585536477</v>
+        <v>0.03633416688586245</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1102751240.544954</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1624383368.283212</v>
+        <v>2603070488.619564</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08331745837971703</v>
+        <v>0.1049672416497266</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04527893125436074</v>
+        <v>0.03656296269976391</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>812191744.2167885</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3389322614.129018</v>
+        <v>2696128134.303864</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1710227074237293</v>
+        <v>0.1737393232642463</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04472076117284495</v>
+        <v>0.04744027822837784</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>145</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1694661410.197897</v>
       </c>
     </row>
     <row r="86">
@@ -3352,22 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2498027388.95191</v>
+        <v>2533731420.747397</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1394728193111316</v>
+        <v>0.1124331482665882</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01913937145188383</v>
+        <v>0.02247835349518891</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>50</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1249013791.37759</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1310031259.159633</v>
+        <v>1068187877.540778</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1195244961483529</v>
+        <v>0.1462479672304433</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03811836078850361</v>
+        <v>0.04149271356247453</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>655015713.3740362</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2967176469.452393</v>
+        <v>3636580983.654948</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1433009690520429</v>
+        <v>0.1750942327754182</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03859213075843568</v>
+        <v>0.03731138411331044</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>151</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1483588261.942286</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3233486446.40943</v>
+        <v>3252395983.144581</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09857000331553843</v>
+        <v>0.1230108135893337</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03527580605584343</v>
+        <v>0.02629796819679115</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>130</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1616743244.20542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1964793307.292503</v>
+        <v>1541615644.376611</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1036941832503423</v>
+        <v>0.1223858941211411</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05230102616504775</v>
+        <v>0.03773156078660794</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>982396717.4324331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1984439172.770988</v>
+        <v>2095089884.590121</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1371777640884328</v>
+        <v>0.1564956191732676</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05064401519525906</v>
+        <v>0.0594347141089097</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>992219560.7310927</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2366232221.25278</v>
+        <v>2547121591.216279</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08957344434964923</v>
+        <v>0.06650031471663065</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04182735646894534</v>
+        <v>0.02925749260270285</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>109</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1183116084.474908</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3431663342.738153</v>
+        <v>3811640506.34754</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1045096320616219</v>
+        <v>0.1225173932798973</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03553100380831441</v>
+        <v>0.03947681737138795</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>114</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1715831708.766304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2525751913.142324</v>
+        <v>1710502356.597112</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1538363473605412</v>
+        <v>0.1325384790163093</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03709030439845103</v>
+        <v>0.04277074790264877</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1262876023.377678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2012937048.625407</v>
+        <v>2257322829.811345</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1062976626818749</v>
+        <v>0.109841547397106</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04627616599415339</v>
+        <v>0.04906869958653819</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>95</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1006468595.827695</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2298840783.058475</v>
+        <v>1718066348.446382</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1222467222112778</v>
+        <v>0.1186557771443605</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03721834098221775</v>
+        <v>0.04056588581909496</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1149420346.616714</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4411035513.225551</v>
+        <v>3739300054.872628</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1119572967342017</v>
+        <v>0.1389708267071925</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01890388704203616</v>
+        <v>0.02028200767483134</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>124</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2205517846.057332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3275155845.001911</v>
+        <v>3647451021.032732</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1111379090413707</v>
+        <v>0.08586387406224759</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02522579208590187</v>
+        <v>0.01993638018712868</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>102</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1637577925.850603</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2357722173.343166</v>
+        <v>2252249703.75496</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1000040096388204</v>
+        <v>0.1336062371990571</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03091354567766599</v>
+        <v>0.02616843913736595</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>121</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1178861026.149976</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3136568361.448714</v>
+        <v>4663550464.136076</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1252369193607746</v>
+        <v>0.180160800710077</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02249626148423399</v>
+        <v>0.02153567120627363</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>118</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1568284182.480858</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3038481363.302643</v>
+        <v>3515139669.975727</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2053344580917209</v>
+        <v>0.200222918839409</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05505890798713183</v>
+        <v>0.04327513417493022</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>157</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1519240775.84884</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_385.xlsx
+++ b/output/fit_clients/fit_round_385.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1893375137.733087</v>
+        <v>2094652117.719622</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1000833154656433</v>
+        <v>0.07977981717422389</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03678630478910612</v>
+        <v>0.0383143468647991</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1896970589.169431</v>
+        <v>1778180885.855301</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1289636487507045</v>
+        <v>0.11214692399542</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03447312810784923</v>
+        <v>0.04380990470760601</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3211021335.528067</v>
+        <v>4181177254.523621</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1016634314489009</v>
+        <v>0.1592471583192369</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03333017636194047</v>
+        <v>0.02992472802374441</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3517340705.371989</v>
+        <v>3811472560.995633</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09630424679383109</v>
+        <v>0.1090108492871177</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03090556664875934</v>
+        <v>0.04625294089226784</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2185927665.73108</v>
+        <v>1924100448.458048</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1335271446475332</v>
+        <v>0.1176596515538272</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05210115662345918</v>
+        <v>0.04793841990292903</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -626,16 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2468212055.831379</v>
+        <v>1942316651.715956</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09242814926873724</v>
+        <v>0.06548729813349734</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03136699954914763</v>
+        <v>0.04859706771805014</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2411884430.007407</v>
+        <v>2474276946.832068</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1608160350420396</v>
+        <v>0.1635409286815168</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02846894444985559</v>
+        <v>0.02304814900513877</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1440435791.222755</v>
+        <v>1970909294.982952</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1713471052677102</v>
+        <v>0.1967443451431309</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02592140490859559</v>
+        <v>0.02974158591684664</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5338436024.143297</v>
+        <v>5782881051.043972</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1348815674526054</v>
+        <v>0.207271965483516</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03667503668777618</v>
+        <v>0.04262580423575984</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2631591501.327183</v>
+        <v>3488603193.242181</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1335402778654105</v>
+        <v>0.1440578056955513</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03707426824721865</v>
+        <v>0.03686387829499994</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2871039656.156592</v>
+        <v>2674974092.44051</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1298736231351188</v>
+        <v>0.1874442657285208</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05360838381956305</v>
+        <v>0.04346784240179282</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4767781716.584414</v>
+        <v>3448041256.903918</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09941398161823278</v>
+        <v>0.09248220927766487</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03019375498853085</v>
+        <v>0.02820142845133941</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3062368173.175586</v>
+        <v>3543495981.168969</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1781377763353449</v>
+        <v>0.1585241383142315</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0380257298153509</v>
+        <v>0.03997396610283917</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1823598123.315851</v>
+        <v>1352388174.272521</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0866455162984895</v>
+        <v>0.09595802899121676</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03464944359645485</v>
+        <v>0.03018403191038333</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2782918016.016566</v>
+        <v>1860886193.410586</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09030312354624695</v>
+        <v>0.07034257921386017</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04794134745263377</v>
+        <v>0.03366172787642824</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3912699965.600699</v>
+        <v>4424240837.579422</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1270986185199022</v>
+        <v>0.1710447626859928</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03647269053576706</v>
+        <v>0.03782736398331792</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3062117014.104276</v>
+        <v>3249778151.515532</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1482342538025871</v>
+        <v>0.1175641710788336</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02302529571296591</v>
+        <v>0.02463388501255429</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1301063114.13788</v>
+        <v>963493670.3512772</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1687385658039167</v>
+        <v>0.1716117295482269</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02296494590404614</v>
+        <v>0.0261861241274992</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2404494207.666353</v>
+        <v>2528717492.503394</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1427441997793876</v>
+        <v>0.1337086091240674</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03180877226329156</v>
+        <v>0.02707351432979508</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1731775426.625524</v>
+        <v>2541091258.718621</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08169084089362445</v>
+        <v>0.06950484707543661</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04535165559848687</v>
+        <v>0.02891193863505867</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2611517162.468013</v>
+        <v>3617408420.819786</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1386550140856896</v>
+        <v>0.1177721013378701</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04894350346874562</v>
+        <v>0.04565604707018107</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1381946979.157908</v>
+        <v>1328907032.481732</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1843111062722616</v>
+        <v>0.177108403898791</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04329449202883043</v>
+        <v>0.05372970725855917</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3833444078.806195</v>
+        <v>3716049196.489726</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09167108741370567</v>
+        <v>0.1079566263946077</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02724279082058722</v>
+        <v>0.02685546586542355</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1027413633.463894</v>
+        <v>1120801171.534556</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07681727501332078</v>
+        <v>0.09584079984696009</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02121509073434472</v>
+        <v>0.02166068130842375</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,16 +1158,16 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1042505683.812666</v>
+        <v>1338229265.551293</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1206696239353533</v>
+        <v>0.09714566875030176</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03165631473821734</v>
+        <v>0.03366748649317318</v>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1186,13 +1186,13 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4572094948.569504</v>
+        <v>3751230459.579916</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1328994696448884</v>
+        <v>0.1333267323610232</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0260351721404574</v>
+        <v>0.02723048889255442</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2367213218.406905</v>
+        <v>2733572953.385485</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09803969763027547</v>
+        <v>0.1007548495298446</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04908815690493979</v>
+        <v>0.0390103823041547</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5157010745.561778</v>
+        <v>3622297566.245539</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1376862264406583</v>
+        <v>0.0933786535110587</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02831191363012862</v>
+        <v>0.03096398536910203</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1905952961.775836</v>
+        <v>1501224968.654067</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1030000661624919</v>
+        <v>0.08776723129526465</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03330674233004868</v>
+        <v>0.03814175347988513</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,22 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1087338178.120378</v>
+        <v>1162256411.237142</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07334590515165734</v>
+        <v>0.1099568791833389</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03751893630687661</v>
+        <v>0.04082060297749941</v>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1700739064.009755</v>
+        <v>1462528639.830592</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0934452769614115</v>
+        <v>0.09846583938015684</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02985185464911165</v>
+        <v>0.03129293654422451</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2480595022.866513</v>
+        <v>2738824323.302839</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1732490596440577</v>
+        <v>0.172731055764168</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05110784815563031</v>
+        <v>0.0480364577326314</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1128141127.273418</v>
+        <v>1551611860.886761</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08284291875635436</v>
+        <v>0.09629600322215048</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01981623508905128</v>
+        <v>0.019014147740579</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1220653019.080642</v>
+        <v>858245190.1103976</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09020897546421006</v>
+        <v>0.08346282488172414</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03828867009645223</v>
+        <v>0.04475325147337084</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3202922862.61825</v>
+        <v>2227211962.404647</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1699562644474039</v>
+        <v>0.1225315740164687</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02063870020024703</v>
+        <v>0.02544943244240372</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2130460817.192174</v>
+        <v>2635532671.870075</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1104660599211396</v>
+        <v>0.08477685258711935</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03298303866738893</v>
+        <v>0.03724974675082678</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1490529785.611513</v>
+        <v>1848536678.53211</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1128567093499556</v>
+        <v>0.1213816977915534</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02836240033615063</v>
+        <v>0.03885643661852826</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1484401769.568346</v>
+        <v>1719787814.345473</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1497908221686347</v>
+        <v>0.1566897363415761</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0309195266862527</v>
+        <v>0.02925766777326675</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1700143400.781063</v>
+        <v>1359728531.900254</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1120494839582791</v>
+        <v>0.1257561672539217</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03689187674352993</v>
+        <v>0.0386649818707124</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2723467479.318116</v>
+        <v>1983222991.170701</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1659755995706065</v>
+        <v>0.1154598712716471</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03567009580557019</v>
+        <v>0.03907442513299197</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2907171177.837817</v>
+        <v>4282333266.336396</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1248343049819513</v>
+        <v>0.1095676869792769</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03371675948643948</v>
+        <v>0.03529656533741296</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2247819124.521963</v>
+        <v>3036623786.389883</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1956146282944042</v>
+        <v>0.136335285525346</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02413158454246878</v>
+        <v>0.01954809029026756</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2199293305.128673</v>
+        <v>1715409593.118039</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06783900612444417</v>
+        <v>0.09846252385988086</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03218189960765849</v>
+        <v>0.03684079999198862</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1800929453.485361</v>
+        <v>2434205650.737143</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1241034057846437</v>
+        <v>0.1494254160240136</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05607161027368869</v>
+        <v>0.04218720471792066</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4250625659.896153</v>
+        <v>5688291157.133349</v>
       </c>
       <c r="F46" t="n">
-        <v>0.110228428011335</v>
+        <v>0.1404553334526206</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04005430490612487</v>
+        <v>0.05859185385777468</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4738114661.903906</v>
+        <v>5123024838.083765</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1280357123194579</v>
+        <v>0.1847611619020276</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04594493228246969</v>
+        <v>0.05885192347307615</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3765708487.931061</v>
+        <v>3019963845.625703</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06724858049177826</v>
+        <v>0.09822756209233233</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0263683762966713</v>
+        <v>0.03065935602573948</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1640517567.988523</v>
+        <v>1719878120.218701</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1554600972397197</v>
+        <v>0.122641826855321</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03303174764047038</v>
+        <v>0.04479535767781784</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4037316628.818097</v>
+        <v>3587510805.228026</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1432519763639496</v>
+        <v>0.1776497719444986</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03244946404817132</v>
+        <v>0.03687528099525723</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1432077118.447341</v>
+        <v>953645419.5885603</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1672842596254107</v>
+        <v>0.1889649585430438</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03476234686579014</v>
+        <v>0.03566428912350236</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3611299268.04495</v>
+        <v>3506351220.111615</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1192298684812212</v>
+        <v>0.09489259453484082</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04436560978564478</v>
+        <v>0.04572635168997211</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,22 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3595689200.534922</v>
+        <v>3735889680.115881</v>
       </c>
       <c r="F53" t="n">
-        <v>0.182867797822355</v>
+        <v>0.1404384645171406</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02644413100990277</v>
+        <v>0.0298478237666707</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -1942,13 +1942,13 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4922442880.942522</v>
+        <v>3046842694.29583</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1202344389731314</v>
+        <v>0.1578495987211752</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04793073479412686</v>
+        <v>0.04007606960121783</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3245242999.965038</v>
+        <v>4470961686.963763</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2011962328848392</v>
+        <v>0.1427571664574658</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02340627708911164</v>
+        <v>0.02694368932410107</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1732672999.737</v>
+        <v>1487921855.327937</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1474772439695233</v>
+        <v>0.141131391031062</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04474700984790901</v>
+        <v>0.05794164060532159</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2822520266.23468</v>
+        <v>4339229725.566336</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1226944972360734</v>
+        <v>0.1535089636563739</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01996312218063335</v>
+        <v>0.02626821521805055</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1207456076.349266</v>
+        <v>1829699355.360098</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1327655885736645</v>
+        <v>0.1874851574707735</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03418221958141134</v>
+        <v>0.03124310416457431</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4445816862.520152</v>
+        <v>4591154371.5919</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1249249005215905</v>
+        <v>0.104076859461369</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03383724888397897</v>
+        <v>0.03809645683540154</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3695020093.925756</v>
+        <v>2893763863.734636</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1662845487951861</v>
+        <v>0.1586817088955122</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02516386217153012</v>
+        <v>0.02213262443081822</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2416070661.182443</v>
+        <v>3096699299.487603</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1516039076345203</v>
+        <v>0.1805724083864661</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02475362266868962</v>
+        <v>0.0216760413304999</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1333610018.781922</v>
+        <v>1943576189.316565</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1195893188689789</v>
+        <v>0.1781435251157913</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0371374764200369</v>
+        <v>0.03520465052238311</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5478696618.502132</v>
+        <v>5573531594.725646</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07315141816226971</v>
+        <v>0.07727816654557143</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0450381719454939</v>
+        <v>0.03169161269401895</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4618745109.941471</v>
+        <v>4878918283.947591</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1694399976898623</v>
+        <v>0.186823924338231</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02857249983835548</v>
+        <v>0.02278620170185862</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5963345693.550977</v>
+        <v>5193417808.009837</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1216280754870805</v>
+        <v>0.11276127795652</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0207876003187519</v>
+        <v>0.0245475838260448</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,19 +2272,19 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3866898174.93658</v>
+        <v>5652990167.573133</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1040494284291994</v>
+        <v>0.1078382151325293</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04771704523342565</v>
+        <v>0.03448083840549792</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3097082882.431507</v>
+        <v>2533002812.432501</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09388895891457029</v>
+        <v>0.06407956046632586</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03269518730131898</v>
+        <v>0.04846072231627859</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5840876197.023718</v>
+        <v>5513542289.763948</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1148459675446474</v>
+        <v>0.1417105382940734</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03131706974368129</v>
+        <v>0.03247884160799252</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2132496019.029859</v>
+        <v>1848845109.960078</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1271657155315913</v>
+        <v>0.1797078817091206</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04229115454462191</v>
+        <v>0.05720412786829054</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2664245027.47799</v>
+        <v>3428296791.723172</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08769491033347071</v>
+        <v>0.07346620882617548</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03419086897338452</v>
+        <v>0.02990980362029223</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4485712585.900564</v>
+        <v>4712405898.553302</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1835826086993419</v>
+        <v>0.1522603380848167</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03000454208007761</v>
+        <v>0.0322036349945997</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2219953047.48184</v>
+        <v>1816119964.657805</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08910565998018156</v>
+        <v>0.09155351205548226</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04243550585049768</v>
+        <v>0.04432458671627015</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3408081427.731004</v>
+        <v>2958813592.086431</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09434677110216065</v>
+        <v>0.1085179384259691</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05001835679437838</v>
+        <v>0.04043238023940765</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3632015754.978979</v>
+        <v>3186670611.139287</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1848100207649453</v>
+        <v>0.1195614673731973</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02146648902851072</v>
+        <v>0.03314614148420099</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1900093643.373496</v>
+        <v>2180626980.212031</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1337815049927684</v>
+        <v>0.16723647241603</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02975226223511655</v>
+        <v>0.02789362759738512</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3686329463.464746</v>
+        <v>3961118314.050932</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1198585110245777</v>
+        <v>0.107122390755515</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02382044256363494</v>
+        <v>0.02226175705569327</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2586,16 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1907803912.963851</v>
+        <v>2083987043.153346</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1814966637272106</v>
+        <v>0.123074179703193</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02043197048225685</v>
+        <v>0.03156299613668184</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4247251391.100063</v>
+        <v>4176882537.951774</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09991317834777148</v>
+        <v>0.1368863978525354</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05075902454925643</v>
+        <v>0.05661470371034823</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1850383873.303412</v>
+        <v>1414144815.464055</v>
       </c>
       <c r="F79" t="n">
-        <v>0.15642374995507</v>
+        <v>0.1732020093180456</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03855347759797301</v>
+        <v>0.03697031630515149</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4616239761.668542</v>
+        <v>5454135510.205711</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07681763944354028</v>
+        <v>0.09315822771657466</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02477035644992088</v>
+        <v>0.02515398341599998</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3950106213.787673</v>
+        <v>3964609919.33218</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1180152042619636</v>
+        <v>0.09557387918543891</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02207494165485804</v>
+        <v>0.03169021460988395</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4493775743.254865</v>
+        <v>4162470468.954719</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1990253748444976</v>
+        <v>0.1626230266090725</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01784695706166772</v>
+        <v>0.02822186800059981</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2337456774.932781</v>
+        <v>2359621035.232975</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1584330496492652</v>
+        <v>0.1128271339679105</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03633416688586245</v>
+        <v>0.0444002384729642</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2603070488.619564</v>
+        <v>2092849338.086011</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1049672416497266</v>
+        <v>0.0932341687700336</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03656296269976391</v>
+        <v>0.04116312449588928</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2696128134.303864</v>
+        <v>2607165472.292379</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1737393232642463</v>
+        <v>0.1408196832309465</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04744027822837784</v>
+        <v>0.05661305110974475</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2533731420.747397</v>
+        <v>2462334216.746667</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1124331482665882</v>
+        <v>0.1241919549725159</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02247835349518891</v>
+        <v>0.02399698758179748</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1068187877.540778</v>
+        <v>1343985638.863006</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1462479672304433</v>
+        <v>0.1475694765469558</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04149271356247453</v>
+        <v>0.04063961509743871</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3636580983.654948</v>
+        <v>2714401398.178807</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1750942327754182</v>
+        <v>0.16279541840551</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03731138411331044</v>
+        <v>0.03687550987829265</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3252395983.144581</v>
+        <v>2476259142.739462</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1230108135893337</v>
+        <v>0.1534580352560023</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02629796819679115</v>
+        <v>0.03566075524399249</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1541615644.376611</v>
+        <v>1553666989.970148</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1223858941211411</v>
+        <v>0.09596937799452129</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03773156078660794</v>
+        <v>0.03549005138081121</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2095089884.590121</v>
+        <v>1485522728.394183</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1564956191732676</v>
+        <v>0.147631765505978</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0594347141089097</v>
+        <v>0.06148981209482576</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2547121591.216279</v>
+        <v>2202614620.206283</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06650031471663065</v>
+        <v>0.09540628879646215</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02925749260270285</v>
+        <v>0.03156330359257354</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3811640506.34754</v>
+        <v>3815510568.860263</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1225173932798973</v>
+        <v>0.1316382534402488</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03947681737138795</v>
+        <v>0.04151719016742211</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1710502356.597112</v>
+        <v>2412722176.87286</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1325384790163093</v>
+        <v>0.1377647743955035</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04277074790264877</v>
+        <v>0.04169707946734821</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2257322829.811345</v>
+        <v>2220408469.1026</v>
       </c>
       <c r="F95" t="n">
-        <v>0.109841547397106</v>
+        <v>0.09055506828369676</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04906869958653819</v>
+        <v>0.04013662691152093</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1718066348.446382</v>
+        <v>1949472290.199427</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1186557771443605</v>
+        <v>0.09905568856824981</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04056588581909496</v>
+        <v>0.04278778579509368</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3739300054.872628</v>
+        <v>3815096773.340353</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1389708267071925</v>
+        <v>0.1141695356659891</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02028200767483134</v>
+        <v>0.01849742209707087</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3647451021.032732</v>
+        <v>2823940269.120421</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08586387406224759</v>
+        <v>0.1163406433357512</v>
       </c>
       <c r="G98" t="n">
-        <v>0.01993638018712868</v>
+        <v>0.02434263018146786</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2252249703.75496</v>
+        <v>3110430754.469912</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1336062371990571</v>
+        <v>0.1439261238309751</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02616843913736595</v>
+        <v>0.02272409029108887</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4663550464.136076</v>
+        <v>3723038997.945222</v>
       </c>
       <c r="F100" t="n">
-        <v>0.180160800710077</v>
+        <v>0.1514570643949212</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02153567120627363</v>
+        <v>0.02610440336987908</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3258,13 +3258,13 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3515139669.975727</v>
+        <v>2838430910.878155</v>
       </c>
       <c r="F101" t="n">
-        <v>0.200222918839409</v>
+        <v>0.186661086372753</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04327513417493022</v>
+        <v>0.05216828102130833</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_385.xlsx
+++ b/output/fit_clients/fit_round_385.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2094652117.719622</v>
+        <v>2265863804.488604</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07977981717422389</v>
+        <v>0.1067458449327834</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0383143468647991</v>
+        <v>0.03477085634835999</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1778180885.855301</v>
+        <v>2593025332.089273</v>
       </c>
       <c r="F3" t="n">
-        <v>0.11214692399542</v>
+        <v>0.1628047751581738</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04380990470760601</v>
+        <v>0.04558120278881398</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4181177254.523621</v>
+        <v>4259065288.572145</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1592471583192369</v>
+        <v>0.1135079104697195</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02992472802374441</v>
+        <v>0.02609881378260911</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>197</v>
+      </c>
+      <c r="J4" t="n">
+        <v>384</v>
+      </c>
+      <c r="K4" t="n">
+        <v>52.3023267882889</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3811472560.995633</v>
+        <v>3764235788.48597</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1090108492871177</v>
+        <v>0.07784447968749959</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04625294089226784</v>
+        <v>0.03529050023514498</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>155</v>
+      </c>
+      <c r="J5" t="n">
+        <v>385</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1924100448.458048</v>
+        <v>2674386132.705162</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1176596515538272</v>
+        <v>0.1001601128431676</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04793841990292903</v>
+        <v>0.03901176277632102</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1942316651.715956</v>
+        <v>2328550426.13838</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06548729813349734</v>
+        <v>0.08509734336064656</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04859706771805014</v>
+        <v>0.0419375465550734</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2474276946.832068</v>
+        <v>3648989153.438296</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1635409286815168</v>
+        <v>0.1344038661114151</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02304814900513877</v>
+        <v>0.02071117060699363</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>104</v>
+      </c>
+      <c r="J8" t="n">
+        <v>384</v>
+      </c>
+      <c r="K8" t="n">
+        <v>51.17142338773773</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1970909294.982952</v>
+        <v>2131173423.63264</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1967443451431309</v>
+        <v>0.1419778726475752</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02974158591684664</v>
+        <v>0.03281711985924499</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +779,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5782881051.043972</v>
+        <v>4133910173.738688</v>
       </c>
       <c r="F10" t="n">
-        <v>0.207271965483516</v>
+        <v>0.1800876716255971</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04262580423575984</v>
+        <v>0.04750706957118419</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>314</v>
+      </c>
+      <c r="J10" t="n">
+        <v>385</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3488603193.242181</v>
+        <v>3047448160.040616</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1440578056955513</v>
+        <v>0.1375865512133995</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03686387829499994</v>
+        <v>0.03229436572843922</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>162</v>
+      </c>
+      <c r="J11" t="n">
+        <v>384</v>
+      </c>
+      <c r="K11" t="n">
+        <v>32.21723764005853</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2674974092.44051</v>
+        <v>2708533707.729652</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1874442657285208</v>
+        <v>0.1889425944452677</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04346784240179282</v>
+        <v>0.03969554530563738</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +886,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3448041256.903918</v>
+        <v>4894960405.290534</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09248220927766487</v>
+        <v>0.08806227484403228</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02820142845133941</v>
+        <v>0.02227121482812698</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>200</v>
+      </c>
+      <c r="J13" t="n">
+        <v>385</v>
+      </c>
+      <c r="K13" t="n">
+        <v>52.98744189310304</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3543495981.168969</v>
+        <v>3313323738.058804</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1585241383142315</v>
+        <v>0.1215216125647482</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03997396610283917</v>
+        <v>0.0441955640639931</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>79</v>
+      </c>
+      <c r="J14" t="n">
+        <v>381</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +958,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1352388174.272521</v>
+        <v>1112506352.459129</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09595802899121676</v>
+        <v>0.07922725554874058</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03018403191038333</v>
+        <v>0.04942938907772124</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +993,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1860886193.410586</v>
+        <v>2518474217.149709</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07034257921386017</v>
+        <v>0.1114455321318596</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03366172787642824</v>
+        <v>0.03642058524263188</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,16 +1034,25 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4424240837.579422</v>
+        <v>3545017214.391245</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1710447626859928</v>
+        <v>0.1582883986247023</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03782736398331792</v>
+        <v>0.0383256704407143</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>184</v>
+      </c>
+      <c r="J17" t="n">
+        <v>384</v>
+      </c>
+      <c r="K17" t="n">
+        <v>39.13141767118209</v>
       </c>
     </row>
     <row r="18">
@@ -928,23 +1065,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3249778151.515532</v>
+        <v>2806664366.648237</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1175641710788336</v>
+        <v>0.1188712398984526</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02463388501255429</v>
+        <v>0.02939184061522675</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>94</v>
+      </c>
+      <c r="J18" t="n">
+        <v>383</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>963493670.3512772</v>
+        <v>1303163893.950186</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1716117295482269</v>
+        <v>0.1164043214850794</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0261861241274992</v>
+        <v>0.02533782997293668</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2528717492.503394</v>
+        <v>2320030911.487183</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1337086091240674</v>
+        <v>0.1575192477980442</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02707351432979508</v>
+        <v>0.02066096671624029</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2541091258.718621</v>
+        <v>1880803854.651433</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06950484707543661</v>
+        <v>0.09966496435582717</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02891193863505867</v>
+        <v>0.03782056761805241</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3617408420.819786</v>
+        <v>3138333285.598879</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1177721013378701</v>
+        <v>0.09890345419484955</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04565604707018107</v>
+        <v>0.04822771835504135</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>107</v>
+      </c>
+      <c r="J22" t="n">
+        <v>379</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1328907032.481732</v>
+        <v>1070968023.275422</v>
       </c>
       <c r="F23" t="n">
-        <v>0.177108403898791</v>
+        <v>0.1520273035398671</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05372970725855917</v>
+        <v>0.04707385898946177</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3716049196.489726</v>
+        <v>3034119774.376844</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1079566263946077</v>
+        <v>0.09388863779701791</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02685546586542355</v>
+        <v>0.02980457809477537</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>119</v>
+      </c>
+      <c r="J24" t="n">
+        <v>381</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1120801171.534556</v>
+        <v>1438020873.284957</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09584079984696009</v>
+        <v>0.1108915718560868</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02166068130842375</v>
+        <v>0.02033624418583686</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1338229265.551293</v>
+        <v>1304648773.898225</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09714566875030176</v>
+        <v>0.1056764334273448</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03366748649317318</v>
+        <v>0.0375443764053801</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,17 +1386,24 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3751230459.579916</v>
+        <v>3492446148.596452</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1333267323610232</v>
+        <v>0.1497087502789989</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02723048889255442</v>
+        <v>0.02487781430809495</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>160</v>
+      </c>
+      <c r="J27" t="n">
+        <v>385</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,22 +1415,31 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2733572953.385485</v>
+        <v>3177733451.114848</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1007548495298446</v>
+        <v>0.1455053958210029</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0390103823041547</v>
+        <v>0.04257949978621921</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>90</v>
+      </c>
+      <c r="J28" t="n">
+        <v>384</v>
+      </c>
+      <c r="K28" t="n">
+        <v>41.97009434717873</v>
       </c>
     </row>
     <row r="29">
@@ -1242,16 +1458,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3622297566.245539</v>
+        <v>5509337171.355359</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0933786535110587</v>
+        <v>0.1347313346973717</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03096398536910203</v>
+        <v>0.04281933360575253</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>331</v>
+      </c>
+      <c r="J29" t="n">
+        <v>385</v>
+      </c>
+      <c r="K29" t="n">
+        <v>53.26093591398484</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1501224968.654067</v>
+        <v>2037608129.836109</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08776723129526465</v>
+        <v>0.08764565049966667</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03814175347988513</v>
+        <v>0.03411948217044596</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1530,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1162256411.237142</v>
+        <v>1204664846.064306</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1099568791833389</v>
+        <v>0.07335349511933707</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04082060297749941</v>
+        <v>0.04380634255267706</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1462528639.830592</v>
+        <v>1763573230.561253</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09846583938015684</v>
+        <v>0.07712723975858761</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03129293654422451</v>
+        <v>0.03134371358000118</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2738824323.302839</v>
+        <v>3070907735.568076</v>
       </c>
       <c r="F33" t="n">
-        <v>0.172731055764168</v>
+        <v>0.1323384230891528</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0480364577326314</v>
+        <v>0.05556683927227642</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1551611860.886761</v>
+        <v>1033893603.174769</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09629600322215048</v>
+        <v>0.07909503682411506</v>
       </c>
       <c r="G34" t="n">
-        <v>0.019014147740579</v>
+        <v>0.02744243080675706</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>858245190.1103976</v>
+        <v>1031261013.220211</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08346282488172414</v>
+        <v>0.1149607995927914</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04475325147337084</v>
+        <v>0.02875364520339898</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2227211962.404647</v>
+        <v>2510920634.075758</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1225315740164687</v>
+        <v>0.1378926144196492</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02544943244240372</v>
+        <v>0.02459212275643232</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2635532671.870075</v>
+        <v>2170701578.955562</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08477685258711935</v>
+        <v>0.1069104418182682</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03724974675082678</v>
+        <v>0.03448627898283359</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1848536678.53211</v>
+        <v>1356878913.593673</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1213816977915534</v>
+        <v>0.07712330498029948</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03885643661852826</v>
+        <v>0.02938998085900885</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1719787814.345473</v>
+        <v>1895108118.781407</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1566897363415761</v>
+        <v>0.1453496846699696</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02925766777326675</v>
+        <v>0.03306957030190515</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1359728531.900254</v>
+        <v>1419793114.241485</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1257561672539217</v>
+        <v>0.09854573363120792</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0386649818707124</v>
+        <v>0.04630710579489208</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>1983222991.170701</v>
+        <v>2399096262.422209</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1154598712716471</v>
+        <v>0.1415658368822235</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03907442513299197</v>
+        <v>0.04176679882664228</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4282333266.336396</v>
+        <v>3343636517.923747</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1095676869792769</v>
+        <v>0.09484970918102201</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03529656533741296</v>
+        <v>0.03119608319890141</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>168</v>
+      </c>
+      <c r="J42" t="n">
+        <v>382</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3036623786.389883</v>
+        <v>1959632897.887132</v>
       </c>
       <c r="F43" t="n">
-        <v>0.136335285525346</v>
+        <v>0.2016649915315618</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01954809029026756</v>
+        <v>0.02546648367892983</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1715409593.118039</v>
+        <v>2096643920.663313</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09846252385988086</v>
+        <v>0.07373345951049323</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03684079999198862</v>
+        <v>0.02349754985686386</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2434205650.737143</v>
+        <v>1958028442.88467</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1494254160240136</v>
+        <v>0.1262876803792162</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04218720471792066</v>
+        <v>0.0452848955863684</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2055,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5688291157.133349</v>
+        <v>5297469429.058244</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1404553334526206</v>
+        <v>0.1082494710105258</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05859185385777468</v>
+        <v>0.05584723387354117</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>231</v>
+      </c>
+      <c r="J46" t="n">
+        <v>384</v>
+      </c>
+      <c r="K46" t="n">
+        <v>50.34330882544039</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5123024838.083765</v>
+        <v>4396907219.918151</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1847611619020276</v>
+        <v>0.184843200784477</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05885192347307615</v>
+        <v>0.04815997888077572</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>172</v>
+      </c>
+      <c r="J47" t="n">
+        <v>385</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2127,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3019963845.625703</v>
+        <v>3358699118.372662</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09822756209233233</v>
+        <v>0.1064963639353778</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03065935602573948</v>
+        <v>0.02471740592878539</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>199</v>
+      </c>
+      <c r="J48" t="n">
+        <v>385</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1719878120.218701</v>
+        <v>1851396867.797305</v>
       </c>
       <c r="F49" t="n">
-        <v>0.122641826855321</v>
+        <v>0.1330524498077314</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04479535767781784</v>
+        <v>0.03928532450776691</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2191,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3587510805.228026</v>
+        <v>4057584438.842381</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1776497719444986</v>
+        <v>0.1374101830545652</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03687528099525723</v>
+        <v>0.04458917809158741</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>132</v>
+      </c>
+      <c r="J50" t="n">
+        <v>385</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1858,17 +2232,24 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>953645419.5885603</v>
+        <v>1339670306.011846</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1889649585430438</v>
+        <v>0.1817565896272242</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03566428912350236</v>
+        <v>0.03499217974568639</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3506351220.111615</v>
+        <v>3920005834.067826</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09489259453484082</v>
+        <v>0.08608683507870363</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04572635168997211</v>
+        <v>0.05672947452665997</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>225</v>
+      </c>
+      <c r="J52" t="n">
+        <v>385</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3735889680.115881</v>
+        <v>2522051036.470372</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1404384645171406</v>
+        <v>0.1536365105609177</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0298478237666707</v>
+        <v>0.02709893447973568</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>53</v>
+      </c>
+      <c r="J53" t="n">
+        <v>380</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3046842694.29583</v>
+        <v>3900350213.918183</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1578495987211752</v>
+        <v>0.1110863205408047</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04007606960121783</v>
+        <v>0.03220210025417596</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>205</v>
+      </c>
+      <c r="J54" t="n">
+        <v>384</v>
+      </c>
+      <c r="K54" t="n">
+        <v>45.84453983755738</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2368,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4470961686.963763</v>
+        <v>4793088659.897255</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1427571664574658</v>
+        <v>0.1944583460403255</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02694368932410107</v>
+        <v>0.03064113923753856</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>186</v>
+      </c>
+      <c r="J55" t="n">
+        <v>385</v>
+      </c>
+      <c r="K55" t="n">
+        <v>53.8018549539817</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1487921855.327937</v>
+        <v>1230457790.747513</v>
       </c>
       <c r="F56" t="n">
-        <v>0.141131391031062</v>
+        <v>0.1218529844128817</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05794164060532159</v>
+        <v>0.05142617491887119</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,23 +2440,30 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4339229725.566336</v>
+        <v>3742912186.780566</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1535089636563739</v>
+        <v>0.1228040383377597</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02626821521805055</v>
+        <v>0.02338258336945365</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>163</v>
+      </c>
+      <c r="J57" t="n">
+        <v>385</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1829699355.360098</v>
+        <v>1798335576.281171</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1874851574707735</v>
+        <v>0.1486711929246042</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03124310416457431</v>
+        <v>0.03783696885417519</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4591154371.5919</v>
+        <v>4369099389.525028</v>
       </c>
       <c r="F59" t="n">
-        <v>0.104076859461369</v>
+        <v>0.08105384965891614</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03809645683540154</v>
+        <v>0.04454876600149827</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>187</v>
+      </c>
+      <c r="J59" t="n">
+        <v>384</v>
+      </c>
+      <c r="K59" t="n">
+        <v>52.3579454855947</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2893763863.734636</v>
+        <v>3343479553.557717</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1586817088955122</v>
+        <v>0.1359783749036854</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02213262443081822</v>
+        <v>0.02128214795415495</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>71</v>
+      </c>
+      <c r="J60" t="n">
+        <v>379</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,22 +2582,31 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3096699299.487603</v>
+        <v>2384824360.255422</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1805724083864661</v>
+        <v>0.1526291388400211</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0216760413304999</v>
+        <v>0.02816637450345314</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>13</v>
+      </c>
+      <c r="J61" t="n">
+        <v>384</v>
+      </c>
+      <c r="K61" t="n">
+        <v>30.09784306464926</v>
       </c>
     </row>
     <row r="62">
@@ -2160,23 +2619,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1943576189.316565</v>
+        <v>1289653225.202352</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1781435251157913</v>
+        <v>0.1823241221275436</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03520465052238311</v>
+        <v>0.04314539586580893</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2654,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5573531594.725646</v>
+        <v>4164539151.010777</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07727816654557143</v>
+        <v>0.1073670670876101</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03169161269401895</v>
+        <v>0.03507739068101318</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>191</v>
+      </c>
+      <c r="J63" t="n">
+        <v>384</v>
+      </c>
+      <c r="K63" t="n">
+        <v>51.32240030494491</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2691,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4878918283.947591</v>
+        <v>3404631417.947478</v>
       </c>
       <c r="F64" t="n">
-        <v>0.186823924338231</v>
+        <v>0.1876084950457662</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02278620170185862</v>
+        <v>0.02297098487772074</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>191</v>
+      </c>
+      <c r="J64" t="n">
+        <v>384</v>
+      </c>
+      <c r="K64" t="n">
+        <v>35.5437496185403</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2728,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5193417808.009837</v>
+        <v>3656018570.023506</v>
       </c>
       <c r="F65" t="n">
-        <v>0.11276127795652</v>
+        <v>0.1736475245849867</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0245475838260448</v>
+        <v>0.02023312028237394</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>288</v>
+      </c>
+      <c r="J65" t="n">
+        <v>384</v>
+      </c>
+      <c r="K65" t="n">
+        <v>40.25270865230411</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2765,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5652990167.573133</v>
+        <v>5529056446.774479</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1078382151325293</v>
+        <v>0.1490799313618588</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03448083840549792</v>
+        <v>0.03797874277452483</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>190</v>
+      </c>
+      <c r="J66" t="n">
+        <v>385</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2800,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2533002812.432501</v>
+        <v>2530257951.461029</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06407956046632586</v>
+        <v>0.1014718990303095</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04846072231627859</v>
+        <v>0.04154112003211636</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2334,16 +2841,25 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5513542289.763948</v>
+        <v>5549441671.380236</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1417105382940734</v>
+        <v>0.1007911420544289</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03247884160799252</v>
+        <v>0.04968805996402292</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>209</v>
+      </c>
+      <c r="J68" t="n">
+        <v>385</v>
+      </c>
+      <c r="K68" t="n">
+        <v>52.64767890437643</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2872,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1848845109.960078</v>
+        <v>2235889927.487042</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1797078817091206</v>
+        <v>0.1366608060838284</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05720412786829054</v>
+        <v>0.05543839278720023</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2907,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3428296791.723172</v>
+        <v>2827324118.181364</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07346620882617548</v>
+        <v>0.0747240096562644</v>
       </c>
       <c r="G70" t="n">
-        <v>0.02990980362029223</v>
+        <v>0.04261566342286653</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>52</v>
+      </c>
+      <c r="J70" t="n">
+        <v>361</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2942,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4712405898.553302</v>
+        <v>4255982664.007859</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1522603380848167</v>
+        <v>0.1573863662871862</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0322036349945997</v>
+        <v>0.03389642990283973</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>274</v>
+      </c>
+      <c r="J71" t="n">
+        <v>385</v>
+      </c>
+      <c r="K71" t="n">
+        <v>52.45133263702338</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2979,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1816119964.657805</v>
+        <v>1661740866.140038</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09155351205548226</v>
+        <v>0.09795403907688444</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04432458671627015</v>
+        <v>0.0416689085629285</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3014,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2958813592.086431</v>
+        <v>3270829176.263814</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1085179384259691</v>
+        <v>0.1097334928686791</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04043238023940765</v>
+        <v>0.04740139468449959</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>29</v>
+      </c>
+      <c r="J73" t="n">
+        <v>382</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3049,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3186670611.139287</v>
+        <v>2775662765.838837</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1195614673731973</v>
+        <v>0.1472095782538813</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03314614148420099</v>
+        <v>0.02465969193194295</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>111</v>
+      </c>
+      <c r="J74" t="n">
+        <v>383</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3084,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2180626980.212031</v>
+        <v>2504760256.45407</v>
       </c>
       <c r="F75" t="n">
-        <v>0.16723647241603</v>
+        <v>0.1534865419060907</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02789362759738512</v>
+        <v>0.02923567967709193</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3119,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3961118314.050932</v>
+        <v>4029059971.649719</v>
       </c>
       <c r="F76" t="n">
-        <v>0.107122390755515</v>
+        <v>0.07867041970287475</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02226175705569327</v>
+        <v>0.02498084844347558</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>181</v>
+      </c>
+      <c r="J76" t="n">
+        <v>385</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2083987043.153346</v>
+        <v>1986994331.404368</v>
       </c>
       <c r="F77" t="n">
-        <v>0.123074179703193</v>
+        <v>0.18686821340728</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03156299613668184</v>
+        <v>0.02526544280133115</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3195,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4176882537.951774</v>
+        <v>3337498884.348229</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1368863978525354</v>
+        <v>0.08376197305678534</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05661470371034823</v>
+        <v>0.052114627673615</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>192</v>
+      </c>
+      <c r="J78" t="n">
+        <v>383</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2642,17 +3230,24 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1414144815.464055</v>
+        <v>1275889616.711132</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1732020093180456</v>
+        <v>0.1218849230755899</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03697031630515149</v>
+        <v>0.0398653079873706</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3259,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5454135510.205711</v>
+        <v>4465890960.48851</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09315822771657466</v>
+        <v>0.1061935103343077</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02515398341599998</v>
+        <v>0.02885292044326965</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>188</v>
+      </c>
+      <c r="J80" t="n">
+        <v>384</v>
+      </c>
+      <c r="K80" t="n">
+        <v>42.07621486860049</v>
       </c>
     </row>
     <row r="81">
@@ -2698,16 +3302,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3964609919.33218</v>
+        <v>4187105268.287044</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09557387918543891</v>
+        <v>0.1091728406037793</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03169021460988395</v>
+        <v>0.02819864728494049</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>179</v>
+      </c>
+      <c r="J81" t="n">
+        <v>384</v>
+      </c>
+      <c r="K81" t="n">
+        <v>49.97875951699417</v>
       </c>
     </row>
     <row r="82">
@@ -2726,17 +3339,24 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4162470468.954719</v>
+        <v>3520256652.68783</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1626230266090725</v>
+        <v>0.1897438965209295</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02822186800059981</v>
+        <v>0.0196349505204221</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>265</v>
+      </c>
+      <c r="J82" t="n">
+        <v>385</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2359621035.232975</v>
+        <v>2156358605.828025</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1128271339679105</v>
+        <v>0.104320438498581</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0444002384729642</v>
+        <v>0.04400182273258228</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3403,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2092849338.086011</v>
+        <v>2030777019.089819</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0932341687700336</v>
+        <v>0.08326806079773877</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04116312449588928</v>
+        <v>0.05123062137107142</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2607165472.292379</v>
+        <v>2577267238.868386</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1408196832309465</v>
+        <v>0.1366413750529899</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05661305110974475</v>
+        <v>0.03500635971449037</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>50</v>
+      </c>
+      <c r="J85" t="n">
+        <v>373</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3473,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2462334216.746667</v>
+        <v>2181702255.420598</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1241919549725159</v>
+        <v>0.1224823951991109</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02399698758179748</v>
+        <v>0.02751897643578235</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3514,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1343985638.863006</v>
+        <v>1083779553.116285</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1475694765469558</v>
+        <v>0.1846789975517479</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04063961509743871</v>
+        <v>0.03794194685658286</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,16 +3549,25 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2714401398.178807</v>
+        <v>3002283856.874139</v>
       </c>
       <c r="F88" t="n">
-        <v>0.16279541840551</v>
+        <v>0.1454269166008122</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03687550987829265</v>
+        <v>0.02873242991845973</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>49</v>
+      </c>
+      <c r="J88" t="n">
+        <v>384</v>
+      </c>
+      <c r="K88" t="n">
+        <v>40.04497357242045</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3580,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2476259142.739462</v>
+        <v>2721387470.045186</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1534580352560023</v>
+        <v>0.126252977536476</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03566075524399249</v>
+        <v>0.03028075582109457</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3621,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1553666989.970148</v>
+        <v>2144734966.504765</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09596937799452129</v>
+        <v>0.1165417184467157</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03549005138081121</v>
+        <v>0.04246163467556498</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3656,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1485522728.394183</v>
+        <v>1565509397.164197</v>
       </c>
       <c r="F91" t="n">
-        <v>0.147631765505978</v>
+        <v>0.1277599113742773</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06148981209482576</v>
+        <v>0.06106579813004726</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3685,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2202614620.206283</v>
+        <v>2230347511.221751</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09540628879646215</v>
+        <v>0.09563233890351415</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03156330359257354</v>
+        <v>0.03849351534280647</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3720,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3815510568.860263</v>
+        <v>3404123006.459149</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1316382534402488</v>
+        <v>0.1306101972638004</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04151719016742211</v>
+        <v>0.05033676598582099</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>182</v>
+      </c>
+      <c r="J93" t="n">
+        <v>385</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3062,17 +3761,24 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2412722176.87286</v>
+        <v>2088040140.75183</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1377647743955035</v>
+        <v>0.1290701278558683</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04169707946734821</v>
+        <v>0.03187702346151645</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2220408469.1026</v>
+        <v>3193439495.402967</v>
       </c>
       <c r="F95" t="n">
-        <v>0.09055506828369676</v>
+        <v>0.1261602842368352</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04013662691152093</v>
+        <v>0.03809275064554698</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3831,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1949472290.199427</v>
+        <v>2387561674.748351</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09905568856824981</v>
+        <v>0.09428991679892795</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04278778579509368</v>
+        <v>0.03914106595840777</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3866,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3815096773.340353</v>
+        <v>3907466124.622522</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1141695356659891</v>
+        <v>0.1625671789588225</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01849742209707087</v>
+        <v>0.02177373695740089</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>199</v>
+      </c>
+      <c r="J97" t="n">
+        <v>385</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,17 +3901,24 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2823940269.120421</v>
+        <v>3862610638.76292</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1163406433357512</v>
+        <v>0.1270006324066892</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02434263018146786</v>
+        <v>0.03262973658356985</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>97</v>
+      </c>
+      <c r="J98" t="n">
+        <v>385</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3110430754.469912</v>
+        <v>3431659653.116955</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1439261238309751</v>
+        <v>0.09779617045616752</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02272409029108887</v>
+        <v>0.02447412016261472</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>7</v>
+      </c>
+      <c r="J99" t="n">
+        <v>385</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3723038997.945222</v>
+        <v>3097387011.073382</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1514570643949212</v>
+        <v>0.1264886223519436</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02610440336987908</v>
+        <v>0.02742430230967383</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>177</v>
+      </c>
+      <c r="J100" t="n">
+        <v>383</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2838430910.878155</v>
+        <v>3196739881.735642</v>
       </c>
       <c r="F101" t="n">
-        <v>0.186661086372753</v>
+        <v>0.1527343180427795</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05216828102130833</v>
+        <v>0.04029845411384516</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>34</v>
+      </c>
+      <c r="J101" t="n">
+        <v>374</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
